--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_17.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_16_17.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>130987.2398648913</v>
+        <v>128548.7667651454</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>307.0284381244537</v>
       </c>
       <c r="D2" t="n">
-        <v>255.2394035011089</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>203.4926237682677</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>74.7576914549238</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>62.95433966001221</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>278.14291317674</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>54.41653174045913</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,7 +947,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,10 +1102,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>24.67936987097346</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>189.1329927668882</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>78.78083674902116</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1148,7 +1148,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>218.5174356271575</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>79.54581243241749</v>
       </c>
       <c r="U10" t="n">
-        <v>71.67037196991727</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1528,22 +1528,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.24347904696276</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,13 +1777,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>154.0869401039756</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>23.10998325717172</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1844,7 +1844,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -2005,19 +2005,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826188928</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2059,7 +2059,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238295</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>80.08971311158616</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>147.6895341487364</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,22 +2713,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2801,13 +2801,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187856</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,13 +3235,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>80.33989744908978</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3424,13 +3424,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>21.63824106824953</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3439,10 +3439,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3481,7 +3481,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3664,19 +3664,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3712,7 +3712,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4138,19 +4138,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428166</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1418.660964416653</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1049.698447476241</v>
+        <v>611.6407204003795</v>
       </c>
       <c r="D2" t="n">
-        <v>791.8808681821918</v>
+        <v>611.6407204003795</v>
       </c>
       <c r="E2" t="n">
-        <v>406.0926155839475</v>
+        <v>611.6407204003795</v>
       </c>
       <c r="F2" t="n">
-        <v>406.0926155839475</v>
+        <v>611.6407204003795</v>
       </c>
       <c r="G2" t="n">
         <v>406.0926155839475</v>
@@ -4328,16 +4328,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653544</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1808.800296392465</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1418.660964416653</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686079</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064755</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080134</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513959</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486468</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962571</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
         <v>66.51211643218342</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1863.704306007672</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1672.018421834499</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T4" t="n">
-        <v>1672.018421834499</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U4" t="n">
-        <v>1672.018421834499</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V4" t="n">
-        <v>1417.333933628612</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W4" t="n">
-        <v>1127.916763591651</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X4" t="n">
-        <v>899.9272126936338</v>
+        <v>362.8175152271517</v>
       </c>
       <c r="Y4" t="n">
-        <v>679.1346335501037</v>
+        <v>142.0249360836216</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1698.50962791956</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="C5" t="n">
-        <v>1329.547110979148</v>
+        <v>1127.748203495403</v>
       </c>
       <c r="D5" t="n">
-        <v>971.2814123723974</v>
+        <v>769.482504888653</v>
       </c>
       <c r="E5" t="n">
-        <v>585.4931597741531</v>
+        <v>488.5300673363904</v>
       </c>
       <c r="F5" t="n">
-        <v>578.5476590249497</v>
+        <v>77.54416254678287</v>
       </c>
       <c r="G5" t="n">
-        <v>163.4752088699461</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.50962791956</v>
+        <v>1514.348043559525</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>530.5487792519424</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="C7" t="n">
-        <v>530.5487792519424</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D7" t="n">
-        <v>380.4321398396066</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E7" t="n">
-        <v>380.4321398396066</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
         <v>212.7293032143256</v>
@@ -4750,25 +4750,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1812.535434410694</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1812.535434410694</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1523.432567536338</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1268.748079330451</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>979.3309092934899</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="X7" t="n">
-        <v>751.3413583954725</v>
+        <v>689.1808091248688</v>
       </c>
       <c r="Y7" t="n">
-        <v>530.5487792519424</v>
+        <v>689.1808091248688</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4802,22 +4802,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
         <v>3018.302393296687</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450754</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450754</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2424.744041450754</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>2424.744041450754</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158131</v>
@@ -4936,7 +4936,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>680.3679798527295</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C10" t="n">
         <v>511.4317969248226</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1565.428901185557</v>
       </c>
       <c r="U10" t="n">
-        <v>1854.900232967364</v>
+        <v>1276.3260343112</v>
       </c>
       <c r="V10" t="n">
-        <v>1600.215744761477</v>
+        <v>1021.641546105313</v>
       </c>
       <c r="W10" t="n">
-        <v>1310.798574724517</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="X10" t="n">
-        <v>1082.809023826499</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y10" t="n">
-        <v>862.0164446829692</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="11">
@@ -5115,31 +5115,31 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1188.28814409505</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.7541388327643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797186</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797186</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>945.402603663004</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,10 +5270,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111715</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>945.402603663004</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C16" t="n">
-        <v>776.4664207350971</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D16" t="n">
-        <v>626.3497813227614</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E16" t="n">
-        <v>478.4366877403683</v>
+        <v>264.0500279773688</v>
       </c>
       <c r="F16" t="n">
-        <v>331.5467402424579</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>117.1600804794585</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5461,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.286391947399</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741512</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806534</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.402603663004</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="17">
@@ -5504,28 +5504,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2426.846358063201</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718105</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741046</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1735.314832085244</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5829,28 +5829,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>95.58405025273903</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5914,46 +5914,46 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797736</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854705</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648818</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138402</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5978,19 +5978,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6063,28 +6063,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>633.9926444679666</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6200,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6257,19 +6257,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6312,19 +6312,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6361,19 +6361,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963485</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338368</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6725,25 +6725,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311364</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U34" t="n">
-        <v>1896.309668945771</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V34" t="n">
-        <v>1641.625180739884</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W34" t="n">
-        <v>1352.208010702924</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X34" t="n">
-        <v>1124.218459804906</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613761</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="35">
@@ -6929,7 +6929,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192599</v>
@@ -6938,7 +6938,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7026,13 +7026,13 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429803</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429803</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7257,22 +7257,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7394,52 +7394,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
         <v>4151.812499466572</v>
@@ -7482,19 +7482,19 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M42" t="n">
         <v>680.0291294438176</v>
@@ -7549,22 +7549,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7625,43 +7625,43 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168621</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7670,25 +7670,25 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7710,7 +7710,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
         <v>314.2396613568978</v>
@@ -7719,31 +7719,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803938</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
         <v>2516.421633107662</v>
@@ -7786,22 +7786,22 @@
         <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>58.24445364655385</v>
       </c>
       <c r="D2" t="n">
-        <v>99.44363811957402</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>334.3632264387543</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>10.92172565345345</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,7 +22595,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0033420516651</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788572</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>11.43719818829476</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>117.1847295890522</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23893,19 +23893,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>46.45968844823241</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>138.4949402405086</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9259388694759139</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,22 +24601,22 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>44.73700564187209</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24841,19 +24841,19 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>81.26583631856553</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25123,13 +25123,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>205.8445769401544</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,13 +25312,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>145.6085800303783</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25327,10 +25327,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,7 +25369,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25552,19 +25552,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25600,7 +25600,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>65.54986409393068</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26026,19 +26026,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194223</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998850.9525846898</v>
+        <v>998850.9525846897</v>
       </c>
     </row>
     <row r="3">
@@ -26311,34 +26311,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>317255.8761406864</v>
+        <v>317255.8761406865</v>
       </c>
       <c r="C2" t="n">
-        <v>348942.7521923204</v>
+        <v>348942.7521923205</v>
       </c>
       <c r="D2" t="n">
         <v>348942.7521923204</v>
       </c>
       <c r="E2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="F2" t="n">
-        <v>343037.3048682527</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="G2" t="n">
         <v>343037.3048682528</v>
       </c>
       <c r="H2" t="n">
+        <v>343037.3048682528</v>
+      </c>
+      <c r="I2" t="n">
         <v>343037.3048682529</v>
       </c>
-      <c r="I2" t="n">
-        <v>343037.3048682526</v>
-      </c>
       <c r="J2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="K2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682528</v>
       </c>
       <c r="L2" t="n">
         <v>343037.3048682528</v>
@@ -26347,10 +26347,10 @@
         <v>343037.3048682528</v>
       </c>
       <c r="N2" t="n">
-        <v>343037.3048682526</v>
+        <v>343037.3048682529</v>
       </c>
       <c r="O2" t="n">
-        <v>343037.3048682528</v>
+        <v>343037.3048682527</v>
       </c>
       <c r="P2" t="n">
         <v>343037.3048682529</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>85055.02793551172</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47189.2393454674</v>
+        <v>47189.23934546738</v>
       </c>
       <c r="C4" t="n">
-        <v>89744.12305813249</v>
+        <v>89744.12305813251</v>
       </c>
       <c r="D4" t="n">
         <v>89744.12305813248</v>
@@ -26436,16 +26436,16 @@
         <v>10557.08828678121</v>
       </c>
       <c r="I4" t="n">
-        <v>10557.08828678122</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="J4" t="n">
         <v>10557.08828678121</v>
       </c>
       <c r="K4" t="n">
-        <v>10557.08828678123</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="L4" t="n">
-        <v>10557.08828678125</v>
+        <v>10557.08828678121</v>
       </c>
       <c r="M4" t="n">
         <v>10557.08828678121</v>
@@ -26454,7 +26454,7 @@
         <v>10557.08828678121</v>
       </c>
       <c r="O4" t="n">
-        <v>10557.08828678121</v>
+        <v>10557.08828678127</v>
       </c>
       <c r="P4" t="n">
         <v>10557.08828678121</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1166612.049493767</v>
+        <v>-1166798.442882306</v>
       </c>
       <c r="C6" t="n">
-        <v>151264.6885727946</v>
+        <v>151264.6885727947</v>
       </c>
       <c r="D6" t="n">
         <v>151264.6885727946</v>
       </c>
       <c r="E6" t="n">
-        <v>-94054.77504979075</v>
+        <v>-94089.51297522627</v>
       </c>
       <c r="F6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.9488321288</v>
       </c>
       <c r="G6" t="n">
-        <v>231357.6867575644</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="H6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321288</v>
       </c>
       <c r="I6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321289</v>
       </c>
       <c r="J6" t="n">
-        <v>13826.48436028679</v>
+        <v>13791.74643485148</v>
       </c>
       <c r="K6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="L6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321287</v>
       </c>
       <c r="M6" t="n">
-        <v>146302.6588220527</v>
+        <v>146267.920896617</v>
       </c>
       <c r="N6" t="n">
-        <v>231357.6867575643</v>
+        <v>231322.9488321289</v>
       </c>
       <c r="O6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321286</v>
       </c>
       <c r="P6" t="n">
-        <v>231357.6867575645</v>
+        <v>231322.9488321288</v>
       </c>
     </row>
   </sheetData>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022929</v>
@@ -26829,7 +26829,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="P4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973553</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>72.5128193029571</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>207.4291018851858</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27540,22 +27540,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>73.85778156328855</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>25.97781301003512</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>103.7874568955218</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>240.1912326468613</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,10 +27822,10 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>165.0896554604684</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>97.39000556970282</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>303.9530049144594</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27868,7 +27868,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>32.47773633174452</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>140.0031368437517</v>
       </c>
       <c r="U10" t="n">
-        <v>214.5414662356956</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28564,7 +28564,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -28779,7 +28779,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -29521,13 +29521,13 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -31835,13 +31835,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31850,19 +31850,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>487.5039436775326</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>746.4857620875799</v>
+        <v>695.222208616788</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
@@ -32096,7 +32096,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>353.130074847795</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32549,31 +32549,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>565.6398038246476</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32795,19 +32795,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>208.6096528357818</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
@@ -32944,7 +32944,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663288</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
         <v>699.5441750817575</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>604.245822599193</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33263,10 +33263,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>183.7183104822601</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33284,7 +33284,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179106</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,25 +33503,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>499.3768644016574</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33746,16 +33746,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>228.3420541567482</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33977,25 +33977,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181833</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34147,7 +34147,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669223</v>
@@ -34208,16 +34208,16 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>579.5299594447137</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34390,7 +34390,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043738</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,7 +34442,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
@@ -34451,13 +34451,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>338.1309585028985</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
@@ -34466,7 +34466,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>182.6892564418561</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35498,19 +35498,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>356.1622315941992</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>615.1440500042467</v>
+        <v>563.8804965334547</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -35744,7 +35744,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>434.2980917413143</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36282,7 +36282,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191305</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36443,19 +36443,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>66.47561891376348</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
         <v>479.454324036777</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>472.9041105158597</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36911,10 +36911,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>45.87687150790111</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -36932,7 +36932,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394662</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,25 +37151,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>368.035152318324</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37394,16 +37394,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>97.00034207341486</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>101.892590396165</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>440.9755796648395</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -38038,7 +38038,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,7 +38090,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38099,13 +38099,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>206.7892464195652</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
@@ -38114,7 +38114,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>37.00975247789211</v>
